--- a/assets/disciplinas/LOQ4258.xlsx
+++ b/assets/disciplinas/LOQ4258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar conhecimento de Pesquisa Operacional como ciência aplicada.</t>
+    <t>5840917 - Fabrício Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Modelos PERT/COM, Programação Linear Inteira, Programação Dinâmica, Métodos Heurísticos, Modelos e Técnicas de Previsão.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Modelos PERT/COM2. Programação Linear Inteira; 2.1. Modelamento de problemas de PLI. 2.2 Algoritmo de ramificação e avaliação progressiva (branchand-bound).3. Programação Dinâmica3. Métodos Heurísticos; 3.1. Algoritmos Genéticos; 3.2 Recozimento Simulado; 3.3 Aplicação em problemas de otimização.4. Modelos e Técnicas de Previsão</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF≥ 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. HILLIER, F.S., LIEBERMAN, G.J., “Introdução à Pesquisa Operacional”, 8ªed., Editora McGraw-Hill, 2006.2. LACHTERMACHER, G., “Pesquisa Operacional na Tomada de Decisão (modelagem em Excel)”, 4ª ed., Editora Campus, 2009.3. ANDERSON, D.R., SWEENEY, D.J. e WILLIAMS, T.A., “An Introduction to Management Science” 9ª ed., South-Western College Publishing, 2000.4. PIZZOLATO, N. D. e GANDOLPHO, A. A. “Técnicas de Otimização”, LTC Editora, 2009.5. TAHA, H. A ., “Pesquisa Operacional”, 8ª ed., Pearson/Prentice Hall, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,34 +615,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -665,77 +659,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4258.xlsx
+++ b/assets/disciplinas/LOQ4258.xlsx
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
+    <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>

--- a/assets/disciplinas/LOQ4258.xlsx
+++ b/assets/disciplinas/LOQ4258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,22 +67,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar conhecimento de Pesquisa Operacional como ciência aplicada.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide operational research knowledge as applied science..</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide operational research knowledge as applied science..</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Modelos PERT/COM, Programação Linear Inteira, Programação Dinâmica, Métodos Heurísticos, Modelos e Técnicas de Previsão.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Modelos PERT/COM2. Programação Linear Inteira; 2.1. Modelamento de problemas de PLI. 2.2 Algoritmo de ramificação e avaliação progressiva (branchand-bound).3. Programação Dinâmica3. Métodos Heurísticos; 3.1. Algoritmos Genéticos; 3.2 Recozimento Simulado; 3.3 Aplicação em problemas de otimização.4. Modelos e Técnicas de Previsão</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF≥ 5,0.</t>
+    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
+    <t>1. HILLIER, F.S., LIEBERMAN, G.J., “Introdução à Pesquisa Operacional”, 8ªed., Editora McGraw-Hill, 2006.2. LACHTERMACHER, G., “Pesquisa Operacional na Tomada de Decisão (modelagem em Excel)”, 4ª ed., Editora Campus, 2009.3. ANDERSON, D.R., SWEENEY, D.J. e WILLIAMS, T.A., “An Introduction to Management Science” 9ª ed., South-Western College Publishing, 2000.4. PIZZOLATO, N. D. e GANDOLPHO, A. A. “Técnicas de Otimização”, LTC Editora, 2009.5. TAHA, H. A ., “Pesquisa Operacional”, 8ª ed., Pearson/Prentice Hall, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -615,37 +624,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -659,66 +665,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
